--- a/HR File.xlsx
+++ b/HR File.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>user ID</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>2022-05-01</t>
+  </si>
+  <si>
+    <t>2023-05-19</t>
   </si>
   <si>
     <t>2023-06-15</t>
@@ -578,8 +581,11 @@
       <c r="G2" t="s">
         <v>40</v>
       </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -605,7 +611,7 @@
         <v>41</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -630,8 +636,11 @@
       <c r="G4" t="s">
         <v>42</v>
       </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -657,7 +666,7 @@
         <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -683,7 +692,7 @@
         <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -708,11 +717,8 @@
       <c r="G7" t="s">
         <v>45</v>
       </c>
-      <c r="I7" t="s">
-        <v>46</v>
-      </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
